--- a/medicine/Pharmacie/Pharmacie_de_la_santé_publique_de_Côte_d'Ivoire/Pharmacie_de_la_santé_publique_de_Côte_d'Ivoire.xlsx
+++ b/medicine/Pharmacie/Pharmacie_de_la_santé_publique_de_Côte_d'Ivoire/Pharmacie_de_la_santé_publique_de_Côte_d'Ivoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pharmacie_de_la_sant%C3%A9_publique_de_C%C3%B4te_d%27Ivoire</t>
+          <t>Pharmacie_de_la_santé_publique_de_Côte_d'Ivoire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Pharmacie de la Santé Publique de Côte d’Ivoire (PSP-CI) était une structure publique érigée en établissement public à caractère industriel et commercial (EPIC). Conformément à son décret d’organisation, elle était chargée de centraliser, de programmer, d’effectuer les achats de matériels techniques et de produits pharmaceutiques nécessaires au fonctionnement des formations sanitaires publiques ou privées, et notamment celles de l’État ou de toute autre personne morale de droit public ivoirien. Elle était également chargée d’organiser l’approvisionnement de ces formations sanitaires en médicaments et produits pharmaceutiques divers consommables médicaux, vaccins, réactifs, produits de laboratoire. 
 Au cours de ces dernières années, les études relatives à la situation de l’établissement ont mis en exergue des difficultés qui ont entrainé une perte de performance de la centrale. 
@@ -505,7 +517,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pharmacie_de_la_sant%C3%A9_publique_de_C%C3%B4te_d%27Ivoire</t>
+          <t>Pharmacie_de_la_santé_publique_de_Côte_d'Ivoire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,7 +535,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>assurer la disponibilité des médicaments essentiels et intrants stratégiques de santé à destination des établissements sanitaires publics et des autres établissements sanitaires associés au service public sanitaire, et ce, sur toute l’étendue du territoire national ;
 assurer l’accessibilité des médicaments essentiels et intrants stratégiques de santé de bonne qualité aux populations en Côte d’Ivoire.</t>
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pharmacie_de_la_sant%C3%A9_publique_de_C%C3%B4te_d%27Ivoire</t>
+          <t>Pharmacie_de_la_santé_publique_de_Côte_d'Ivoire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>Organisation et fonctionnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Nouvelle PSP Côte d’Ivoire a un organigramme adapté au besoin de satisfaction des structures publiques de santé et qui permet de concilier la mission de service public et les impératifs d’une gestion de type commercial.
 </t>
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pharmacie_de_la_sant%C3%A9_publique_de_C%C3%B4te_d%27Ivoire</t>
+          <t>Pharmacie_de_la_santé_publique_de_Côte_d'Ivoire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Clientèle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Nouvelle PSP Côte d’Ivoire entretient des rapports avec divers clients publics et privés.
 En ce qui concerne les structures publiques, il s'agit des Districts sanitaires, des formations sanitaires hospitalières (Hôpitaux généraux, Centres hospitaliers régionaux), des formations sanitaires urbaines et des centres de santé urbain ainsi que des structures scolaires et universitaires et santé.
